--- a/Testdata/TC_39.xlsx
+++ b/Testdata/TC_39.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>GRoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpK9sY1ZBrrZEaqLIcn1Oi/FiBxLrKmhQg4t6y0FEqRIUxRFsSnSK/qUokC3izYB0t1e/iVYe7dP/YWeuXBISnK22i6MNefc5syZcx2jt2/mgXFNotgP6cOSXbFKBqFu6Pl0+rCUsMuy/aD0toPaNy4JTnGE54QBsQFcND66if2HpRljiyPTXC6XlWWtEkZTs2pZtvmo1x25MzLHZZ/GDFOXlDSX93qukoOa3rxHGPYww5LzYakz6lSaxHdbAOthiqckqjSS2KckjtuU+cwnMeeMCGak2ep9Tx7MqVYeVGxkbsAzykbiB56kK1BKuKKDbcnYnxOnatkHZeugXLPH1uGRvX9Uq1bsg713U0ZNiLo4ZiMSXfuuAIwYni8Eu3VQs61De79WReZWIpCVGcBBg8Abkms/Jl6TBEG8k0VMdYF1l8GpdzOmhcwcrxL05iqcRHgxG/ssILupMew1jDlVumRCHHQcRsQF+72RSn2yHETKrONFF7DjmR+xVQuvdpZ1FpNosOBG2o3VQa2QsnpAIna2gLsmHrgCIBwWJQSZ9yAzppYfu/Dt04R4ziUO4jxTAYnOw+gqXmCX9CGOTS5jSYMQe+BwzI+Z78aZgA0MOo3CBYiE3Rth4B2D2JR6C0bL7lAwMt+4EYZX6+KLSCTuVdww3Ooca/kbcDSahcsBDVajZBK7kT8hXquRUm/FIR6SiruZxCycgxYZCElYDrKCfxCC62DUIq4/x8FpAGaMnRpIKQBQPWHhpc+aYZDMqbbnGhSdw4nG5EafUK/RAK6XcquHtENTeukKW1FFhmG41HtuIoQRcuB67Oob2cSsU7cApnxyEyFuhJ/y2A+gQuTvIgctesVoRgjb6hISg3gyPOY1x2ms+sl8AgE2gSi7FrvGyMzwCBwVvB30ciyoI2XxM7asI/EDemg0alPvfroUiWC73F6ODbg1EIIzBY0A0yuAnvts1q+nZ9mCQdIC99Jv4hDE7iLAKwHWVsrDUIe6QeIRmRI69FK4KNdNUd+LRxugLkS5gzBdjVcLnhrMeyha5BInAVQrBkllmuWLNTCqx1frNHkQOouC9MYd3gvE0Ay43rziQrrkBa/ihnMOMKEGn4+QmafnOd8lbTrtYjpNIKtqO67Dtb/xfDCOMI35cXQSXXO97UQovReZ3B15WYNEuJO8rBCwyFyjQ2MyX4QRDnpgGP84oaKAqgoBFu5hNlMriOWAuKmRzYxVcxU1SxV/HZkISnkMnvHzQZmDCip+GNl3yBAvwhA/Zi/0oPLjwJ9EBS/bioMby+ph6m/8dDvWxvQSoPeEdPNdsuINSbZQcO60jp0ixAo1QSVnNNw7qO5bvMkSayROPCQ4MNrQlTJidOg1idkc2I6MIYl9D758HBwZ75AJ8SHqhYlU3O3MnedDxxF5L4HueiVUqYO+RUiRABLs1Kc42CTUmIzBuSA4ClY5QnnUbugC3d2P/nX766cvnn1+9/HjV19+8J+///LFP356++RD+Lj7y19vP/mFPKYkRmM8CYhQaNw4OLBqe+BoGoRUfoCS7yUuE7CLC9EC6DVSvaxYNNud5km3IRKKBqbsvL1IeDB08SpMsuVIHkJsJK7UTD1BkjjjNEGpdQHbIrzuyyjkbes1KVLn8fcxSlu8fP75y+d/updbGSwrLvbh4X7Zrr629sAAYG/Q6drDxwHZ7aXDxl7Z2i9XqzniNRo0hJkJmjttp47n8PnCqtYsWydzTzvyNqJ1lJI0xlNzjU+CmmFCWbTSLpBfp0jh+GMIEY2WoZBbKBf98sev/vy4QKWsqyBFKaBcmETSm8x0IUT3h2NjNDgbNtvGuD3ifpLhcnRS+DcQq911PBWcitIEB9+BSZnPyUYJWsCSEV4aBLszYwWRmIvDgrNtg8qN3lDkupYnUZgs5I3kGDLoFkqdTbZybMk1AifsuZF0MtQWcqnr7d++2MagDqLc7Iz6TI98eRgqYCQoh1dR+9k/X3z10Ytnz+6e/uz2qx8WJKh99CQEfg7RlF9qt4eUp+rNGgSdj4Qxr6zv5+qLAvLO8TT0KYsd+4FoGtUKAavNpYnfqDOHkicEC3sBfA2C3sFx+4apwHb6yCwCQM8FhmobZs22Bsgcntn137/57d2vvrj79Omrj/54+/Efbj/59OXz37168nsZdXePn9795InK8uuFQOjCW3jZBRpiInQNHo0Gr93G1+//3KAhM6DnMBKRkb5+/7OcMK6o6E4yydDTaUWKKmyQ5pk5n5FTRetQ4NMssgFo8hJW0xSqiIUL3802ebfMRfG4E4hvdcblJCZGCO3Ut+EkReKM+X/lUyyypJ6+ZVXtqsJKbfgRJjjOmf4kCCfQZKQIMXGtkRS4vpkhoxX7nXQHjXo3I5FKDCIPBjSLj438A6U9JS8pnThd6ckigwAWGj83CfiQvEG2idKSc2nMVMPmZd3j6W/7bFaggIE9imRDRNXz5ShZQDfMVAN7P1681OT6377sVfMdcbbutIp4WOewUAiLaA4QeJGaFEqmqU7MB1vZzva5abIl4AqvO2AO9UIpO61r6Csjk+eddhSF0dbkk2FSsh500pBRzMzimkbcqey6veyuUkCa8PSHHP3UCcMWCQjb7fnOzLh74fUb88Ld78raiQeBp4y52+ihzZIJyL9hckf5f58wpbPVowgaK/7isfObYzq5DmHg3VEbeRTByCdA2F09Ch77Ucwe8UygviTkQkMuZIf6iA9c8kOsL5xDuQa8mRduFrRMI5fJh+Qw6Ppzf8ep0ErDuygETLlYyA6us5uj8MrSJzfQX+YkQE6c/ACqBp94dpMm/RVSqebnbzWxP52xXRV7a4KJRyZW2Z2QannPsw7Kh4TUyrYN/2O3WrWsff7Qo4RD4vDJcsdNzPTCsj/wOP8FUaK7XRkaAAA=</t>
+          <t>8RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUBlXmR7bWOWgXWxI1SyDEmu13kpRuTInpoiFXJoW28p0CJFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKzpWsYMOfc5syZcx2jd25mgXFF4oRG4eOavWHVDBJ6kU/D88e1lE3r9nbtHRd1bjwSHOMYzwgDYgO4wmTvJqGPaxeMzfdM8/r6euO6sRHF56ZjWbb5pN8beRdkhus0TBgOPVLTXP7buWouavmzPmHYxwxLzse17qi70SLUawOsj0N8TuKNZprQkCRJJ2SUUZJwzphgRlrt/nfkwVxnY3vDRuYKPKdspjTwJV2JUsIVHWxLxnRGXMdyrLq1U3c2x7a9Z1t7lr2xu7X9XsaoCVEPJ2xE4ivqCcCI4dlcsFs7zqZt23BoZK4lAlm5AVw0CPwhuaIJ8VskCJJKFjHVBe57DE5dzZgWMgu8StDDVTiM8fxiTFlAqrIfRDHxwFAP2vuIXA9iZb/xvAfY8QWN2aKNF5VlnSQkHsy5NaqxuqgdhWw/IDE7mcOlEh/uHBAui1OCzHuQOVObJh580zAlvjvFQVJkKiHRaRRfJnPskSMIWJPLuA6DCPvgWYwmjHpJLmAFg47jaA4iYfdmFPgHIDajXoPRsrshGJlv3Iyiy2XxZSQSXiD8AW51hrX8FTgaXUTXgzBYjNJJ4sV0Qvx2M6Nei0M89hR3K01YNAMtchCSsAJkAT8Qa8tg1CYeneHgOAAzJm4DpJQAaD9l0ZSyVhSks1DbcwmKTuFEY3KjT6jXaADXG3KrR2E3zOilK6xFlRmG0bXecxUhjFAA7yeevpFVzDJ1G2DKJ1cR4kb4KQ9oAKWgeBcFaNkrRheEsLUuITGIZ70DXlzc5uIonU0gwCYQZVdi1wSZOR6Bo4K3g16uBbmzLn7HFmRg/gt6aDTqhP79dBkSwXaFvVwbcEsgBGcKmgEOLwF6StnF0X52ljUYJC1wL/0qDkHszgO8EGBtpSIMdUMvSH0iU0I3nAoX5bop6nvxaAXUgyjnGYFMcRpA1WGQM87zdLAERvvJ5TJNEYRO4iC7UJfX9ASKuufPNjzIhrxwbXjRjANMqKWnI2QW6XlK90gnPO/h8DyFpKnNtAzX7sTDfRzjMOHn0TlyybPWE6HM7DJ3u/IuBqnwFnkXEWCRuUSHxmQ2j2Ic9MEw9CANRSFUBQAs2cfsQq0gVAPiFaycsWqusmaZ4m8jEzEnj8ETejHmClBBxQ8j+wcZwWUY4sfsRz5UcBzQSVxyorU4uLG83GXuxE9XsfRllwA9JGSTb5MFbyzyhYKPF3Pi2hlCrFALVHJHw80dZ8tqOJCp+RqJEw8JDowOdJeMGN3wiiRsBmx7xpAk1IcvioM9410yIRSCWphIhVVl7iIfOojJ+yl0yQuhyj7oW4aUCSB/ntMQB6uEGpMzuGcEx8GiQCiP2os8oLv70b9uf/381YvP7j56+uaLH/zn77989Y+f3j77IXzc/eWvtx//Qh5TEqMxngREKDRu7uxYjU1wNA1C3LimqPV+6jEBOzsTFV6vkepJxaLV6bYOe03wqAIwY+fdQ8qDoYcXUZovR/IQYiNxpWbmCZLEHQt5+bqEbRNe1mUU8vbzipSpi/j7GKUtXr/87PXLP93LrQyW1w57d3erbjtvLS2OZdsrdLq08LZeNnNqaLA369ZW3XEKxEs0aAizD/Ru2k5d323Y1q7lNPigoGGZI68jWkYpSWN8bi7xSVArSkMWL7QLFNcZUjj+GEJEo2UoFBbKRb/48Zs/Py1RKesqSFkKKBelsfQmM1sI0UfDsTEanAxbHWPcGXE/yXEFOin8a4jV7jqeSk4VhikOvgUTL593jRp0eDUjmhoEexfGAiKxEIclZ1sHlRs9UOSylodxlM7ljRQYcugaSp1N1nKsyTUCJ+y5knRy1Bpyqevt3z5fx6AOotzsJKTMHfabxizUfilgqISRoAJeRe2n/3z15YevXry4e/6z2y+/X5Kg9tGDDvg5RFNxqd0eUp6qN0sQdDoSxry0vluoLwrIG8PjiIYsce1t0ROqFQJWm0sTf1F3BiVPCBb2AvgSBL2Lk84NU4HtHiGzDAA95xiqbZT30hogc3hu13//5rd3v/r87pPnbz784+1Hf7j9+JPXL3/35tnvZdTdPX1+95NnKssvFwKhC+/QZRtoiIHPM3g0Grx2G1998HMjjJgBPYeRioz01QefFoRxRUV3kkuGnk4rUlZhhbTIzPmMgipahxKfZpENQIuXsIamUEUsmlMv3+S9OhfF404gvtEd19OEGBG0U9+Ek5SJc+b/lU+xyJJ6/MhybEdhpTb8CBOcFEx/GEQTaDIyhBiolkhKXF/PkNOK/Q57g+Z+LyeRSgxiH+Yvi0+F/AN1k6yr1MNCDgEsNHteGvC5d4VsFYWyr0LqMtX8ON33ecpbP26VKGAGj2PZBIXq6XGUzqEDZqppvR8vHl8KPe+R7E+LXXC+7rbLeFgXsFD8ymgOEHiRjhRKpqZuwmdV2cIecdPkS8CVHmzAHOp1UXZXV9BLxibPNZ04juK1CSfHZGR96J4hi5i5xTWNybeUnbaf31UGyJKc/uC9us6FUZsEhFV+esu4+9HVg3nh7quydpNB4CtjVhs3tFlyAcX3R+4oVZXZj2Nom/hzReUHwx4NL7vVTu82wDW2nSl0dDv+1nQy2d2xSMN+9Ghnc2vi+HA2KZSPn1wEn1z47FZtE2gWy+z5oD2E0buiNGlgwchnUbCUCEiV2PUaHdA4YU94ilJfEnKmIWeydX7iqqfxJ3J95u7KNeDN4l5mSeksvTD5Uh0FPTqjFcdVK8tBZSHgBfO5bC2r3ieUvCNyA41vQQIk68n3oJzxUayaNBlUkOM1fyZrlE4qizMz5mPAc796GHfHh7bs4dzi1ZcG/4cCovF6qIhumNDzC1b1Xp3d3QbZJk7dmXpefRMWdSjGk7qPp7u2ZU0b/pbD3+eUcCgOlFxX3ISXFJrAWFGdz1z6x537X7JHKHLxGwAA</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -465,4 +465,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>10</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F142B100-17C9-4FD1-894D-365394CC205B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_39.xlsx
+++ b/Testdata/TC_39.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUBlXmR7bWOWgXWxI1SyDEmu13kpRuTInpoiFXJoW28p0CJFmqIoik2RXtGnFAW6XbQJkO728i/B2rt96i/0zIVDUpKzpWsYMOfc5syZcx2jd25mgXFF4oRG4eOavWHVDBJ6kU/D88e1lE3r9nbtHRd1bjwSHOMYzwgDYgO4wmTvJqGPaxeMzfdM8/r6euO6sRHF56ZjWbb5pN8beRdkhus0TBgOPVLTXP7buWouavmzPmHYxwxLzse17qi70SLUawOsj0N8TuKNZprQkCRJJ2SUUZJwzphgRlrt/nfkwVxnY3vDRuYKPKdspjTwJV2JUsIVHWxLxnRGXMdyrLq1U3c2x7a9Z1t7lr2xu7X9XsaoCVEPJ2xE4ivqCcCI4dlcsFs7zqZt23BoZK4lAlm5AVw0CPwhuaIJ8VskCJJKFjHVBe57DE5dzZgWMgu8StDDVTiM8fxiTFlAqrIfRDHxwFAP2vuIXA9iZb/xvAfY8QWN2aKNF5VlnSQkHsy5NaqxuqgdhWw/IDE7mcOlEh/uHBAui1OCzHuQOVObJh580zAlvjvFQVJkKiHRaRRfJnPskSMIWJPLuA6DCPvgWYwmjHpJLmAFg47jaA4iYfdmFPgHIDajXoPRsrshGJlv3Iyiy2XxZSQSXiD8AW51hrX8FTgaXUTXgzBYjNJJ4sV0Qvx2M6Nei0M89hR3K01YNAMtchCSsAJkAT8Qa8tg1CYeneHgOAAzJm4DpJQAaD9l0ZSyVhSks1DbcwmKTuFEY3KjT6jXaADXG3KrR2E3zOilK6xFlRmG0bXecxUhjFAA7yeevpFVzDJ1G2DKJ1cR4kb4KQ9oAKWgeBcFaNkrRheEsLUuITGIZ70DXlzc5uIonU0gwCYQZVdi1wSZOR6Bo4K3g16uBbmzLn7HFmRg/gt6aDTqhP79dBkSwXaFvVwbcEsgBGcKmgEOLwF6StnF0X52ljUYJC1wL/0qDkHszgO8EGBtpSIMdUMvSH0iU0I3nAoX5bop6nvxaAXUgyjnGYFMcRpA1WGQM87zdLAERvvJ5TJNEYRO4iC7UJfX9ASKuufPNjzIhrxwbXjRjANMqKWnI2QW6XlK90gnPO/h8DyFpKnNtAzX7sTDfRzjMOHn0TlyybPWE6HM7DJ3u/IuBqnwFnkXEWCRuUSHxmQ2j2Ic9MEw9CANRSFUBQAs2cfsQq0gVAPiFaycsWqusmaZ4m8jEzEnj8ETejHmClBBxQ8j+wcZwWUY4sfsRz5UcBzQSVxyorU4uLG83GXuxE9XsfRllwA9JGSTb5MFbyzyhYKPF3Pi2hlCrFALVHJHw80dZ8tqOJCp+RqJEw8JDowOdJeMGN3wiiRsBmx7xpAk1IcvioM9410yIRSCWphIhVVl7iIfOojJ+yl0yQuhyj7oW4aUCSB/ntMQB6uEGpMzuGcEx8GiQCiP2os8oLv70b9uf/381YvP7j56+uaLH/zn77989Y+f3j77IXzc/eWvtx//Qh5TEqMxngREKDRu7uxYjU1wNA1C3LimqPV+6jEBOzsTFV6vkepJxaLV6bYOe03wqAIwY+fdQ8qDoYcXUZovR/IQYiNxpWbmCZLEHQt5+bqEbRNe1mUU8vbzipSpi/j7GKUtXr/87PXLP93LrQyW1w57d3erbjtvLS2OZdsrdLq08LZeNnNqaLA369ZW3XEKxEs0aAizD/Ru2k5d323Y1q7lNPigoGGZI68jWkYpSWN8bi7xSVArSkMWL7QLFNcZUjj+GEJEo2UoFBbKRb/48Zs/Py1RKesqSFkKKBelsfQmM1sI0UfDsTEanAxbHWPcGXE/yXEFOin8a4jV7jqeSk4VhikOvgUTL593jRp0eDUjmhoEexfGAiKxEIclZ1sHlRs9UOSylodxlM7ljRQYcugaSp1N1nKsyTUCJ+y5knRy1Bpyqevt3z5fx6AOotzsJKTMHfabxizUfilgqISRoAJeRe2n/3z15YevXry4e/6z2y+/X5Kg9tGDDvg5RFNxqd0eUp6qN0sQdDoSxry0vluoLwrIG8PjiIYsce1t0ROqFQJWm0sTf1F3BiVPCBb2AvgSBL2Lk84NU4HtHiGzDAA95xiqbZT30hogc3hu13//5rd3v/r87pPnbz784+1Hf7j9+JPXL3/35tnvZdTdPX1+95NnKssvFwKhC+/QZRtoiIHPM3g0Grx2G1998HMjjJgBPYeRioz01QefFoRxRUV3kkuGnk4rUlZhhbTIzPmMgipahxKfZpENQIuXsIamUEUsmlMv3+S9OhfF404gvtEd19OEGBG0U9+Ek5SJc+b/lU+xyJJ6/MhybEdhpTb8CBOcFEx/GEQTaDIyhBiolkhKXF/PkNOK/Q57g+Z+LyeRSgxiH+Yvi0+F/AN1k6yr1MNCDgEsNHteGvC5d4VsFYWyr0LqMtX8ON33ecpbP26VKGAGj2PZBIXq6XGUzqEDZqppvR8vHl8KPe+R7E+LXXC+7rbLeFgXsFD8ymgOEHiRjhRKpqZuwmdV2cIecdPkS8CVHmzAHOp1UXZXV9BLxibPNZ04juK1CSfHZGR96J4hi5i5xTWNybeUnbaf31UGyJKc/uC9us6FUZsEhFV+esu4+9HVg3nh7quydpNB4CtjVhs3tFlyAcX3R+4oVZXZj2Nom/hzReUHwx4NL7vVTu82wDW2nSl0dDv+1nQy2d2xSMN+9Ghnc2vi+HA2KZSPn1wEn1z47FZtE2gWy+z5oD2E0buiNGlgwchnUbCUCEiV2PUaHdA4YU94ilJfEnKmIWeydX7iqqfxJ3J95u7KNeDN4l5mSeksvTD5Uh0FPTqjFcdVK8tBZSHgBfO5bC2r3ieUvCNyA41vQQIk68n3oJzxUayaNBlUkOM1fyZrlE4qizMz5mPAc796GHfHh7bs4dzi1ZcG/4cCovF6qIhumNDzC1b1Xp3d3QbZJk7dmXpefRMWdSjGk7qPp7u2ZU0b/pbD3+eUcCgOlFxX3ISXFJrAWFGdz1z6x537X7JHKHLxGwAA</t>
+          <t>GRoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpK9sY1ZBrrZEaqLIcn1Oi/FiBxLrKmhQg4t6y0FEqRIUxRFsSnSK/qUokC3izYB0t1e/iVYe7dP/YWeuXBISnK22i6MNefc5syZcx2jt2/mgXFNotgP6cOSXbFKBqFu6Pl0+rCUsMuy/aD0toPaNy4JTnGE54QBsQFcND66if2HpRljiyPTXC6XlWWtEkZTs2pZtvmo1x25MzLHZZ/GDFOXlDSX93qukoOa3rxHGPYww5LzYakz6lSaxHdbAOthiqckqjSS2KckjtuU+cwnMeeMCGak2ep9Tx7MqVYeVGxkbsAzykbiB56kK1BKuKKDbcnYnxOnatkHZeugXLPH1uGRvX9Uq1bsg713U0ZNiLo4ZiMSXfuuAIwYni8Eu3VQs61De79WReZWIpCVGcBBg8Abkms/Jl6TBEG8k0VMdYF1l8GpdzOmhcwcrxL05iqcRHgxG/ssILupMew1jDlVumRCHHQcRsQF+72RSn2yHETKrONFF7DjmR+xVQuvdpZ1FpNosOBG2o3VQa2QsnpAIna2gLsmHrgCIBwWJQSZ9yAzppYfu/Dt04R4ziUO4jxTAYnOw+gqXmCX9CGOTS5jSYMQe+BwzI+Z78aZgA0MOo3CBYiE3Rth4B2D2JR6C0bL7lAwMt+4EYZX6+KLSCTuVdww3Ooca/kbcDSahcsBDVajZBK7kT8hXquRUm/FIR6SiruZxCycgxYZCElYDrKCfxCC62DUIq4/x8FpAGaMnRpIKQBQPWHhpc+aYZDMqbbnGhSdw4nG5EafUK/RAK6XcquHtENTeukKW1FFhmG41HtuIoQRcuB67Oob2cSsU7cApnxyEyFuhJ/y2A+gQuTvIgctesVoRgjb6hISg3gyPOY1x2ms+sl8AgE2gSi7FrvGyMzwCBwVvB30ciyoI2XxM7asI/EDemg0alPvfroUiWC73F6ODbg1EIIzBY0A0yuAnvts1q+nZ9mCQdIC99Jv4hDE7iLAKwHWVsrDUIe6QeIRmRI69FK4KNdNUd+LRxugLkS5gzBdjVcLnhrMeyha5BInAVQrBkllmuWLNTCqx1frNHkQOouC9MYd3gvE0Ay43rziQrrkBa/ihnMOMKEGn4+QmafnOd8lbTrtYjpNIKtqO67Dtb/xfDCOMI35cXQSXXO97UQovReZ3B15WYNEuJO8rBCwyFyjQ2MyX4QRDnpgGP84oaKAqgoBFu5hNlMriOWAuKmRzYxVcxU1SxV/HZkISnkMnvHzQZmDCip+GNl3yBAvwhA/Zi/0oPLjwJ9EBS/bioMby+ph6m/8dDvWxvQSoPeEdPNdsuINSbZQcO60jp0ixAo1QSVnNNw7qO5bvMkSayROPCQ4MNrQlTJidOg1idkc2I6MIYl9D758HBwZ75AJ8SHqhYlU3O3MnedDxxF5L4HueiVUqYO+RUiRABLs1Kc42CTUmIzBuSA4ClY5QnnUbugC3d2P/nX766cvnn1+9/HjV19+8J+///LFP356++RD+Lj7y19vP/mFPKYkRmM8CYhQaNw4OLBqe+BoGoRUfoCS7yUuE7CLC9EC6DVSvaxYNNud5km3IRKKBqbsvL1IeDB08SpMsuVIHkJsJK7UTD1BkjjjNEGpdQHbIrzuyyjkbes1KVLn8fcxSlu8fP75y+d/updbGSwrLvbh4X7Zrr629sAAYG/Q6drDxwHZ7aXDxl7Z2i9XqzniNRo0hJkJmjttp47n8PnCqtYsWydzTzvyNqJ1lJI0xlNzjU+CmmFCWbTSLpBfp0jh+GMIEY2WoZBbKBf98sev/vy4QKWsqyBFKaBcmETSm8x0IUT3h2NjNDgbNtvGuD3ifpLhcnRS+DcQq911PBWcitIEB9+BSZnPyUYJWsCSEV4aBLszYwWRmIvDgrNtg8qN3lDkupYnUZgs5I3kGDLoFkqdTbZybMk1AifsuZF0MtQWcqnr7d++2MagDqLc7Iz6TI98eRgqYCQoh1dR+9k/X3z10Ytnz+6e/uz2qx8WJKh99CQEfg7RlF9qt4eUp+rNGgSdj4Qxr6zv5+qLAvLO8TT0KYsd+4FoGtUKAavNpYnfqDOHkicEC3sBfA2C3sFx+4apwHb6yCwCQM8FhmobZs22Bsgcntn137/57d2vvrj79Omrj/54+/Efbj/59OXz37168nsZdXePn9795InK8uuFQOjCW3jZBRpiInQNHo0Gr93G1+//3KAhM6DnMBKRkb5+/7OcMK6o6E4yydDTaUWKKmyQ5pk5n5FTRetQ4NMssgFo8hJW0xSqiIUL3802ebfMRfG4E4hvdcblJCZGCO3Ut+EkReKM+X/lUyyypJ6+ZVXtqsJKbfgRJjjOmf4kCCfQZKQIMXGtkRS4vpkhoxX7nXQHjXo3I5FKDCIPBjSLj438A6U9JS8pnThd6ckigwAWGj83CfiQvEG2idKSc2nMVMPmZd3j6W/7bFaggIE9imRDRNXz5ShZQDfMVAN7P1681OT6377sVfMdcbbutIp4WOewUAiLaA4QeJGaFEqmqU7MB1vZzva5abIl4AqvO2AO9UIpO61r6Csjk+eddhSF0dbkk2FSsh500pBRzMzimkbcqey6veyuUkCa8PSHHP3UCcMWCQjb7fnOzLh74fUb88Ld78raiQeBp4y52+ihzZIJyL9hckf5f58wpbPVowgaK/7isfObYzq5DmHg3VEbeRTByCdA2F09Ch77Ucwe8UygviTkQkMuZIf6iA9c8kOsL5xDuQa8mRduFrRMI5fJh+Qw6Ppzf8ep0ErDuygETLlYyA6us5uj8MrSJzfQX+YkQE6c/ACqBp94dpMm/RVSqebnbzWxP52xXRV7a4KJRyZW2Z2QannPsw7Kh4TUyrYN/2O3WrWsff7Qo4RD4vDJcsdNzPTCsj/wOP8FUaK7XRkaAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -465,37 +465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>10</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F142B100-17C9-4FD1-894D-365394CC205B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>